--- a/temperatura.CSV.xlsx
+++ b/temperatura.CSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ejerciciosp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B336CBEB-1D7A-40EF-BA2D-810A3FA33F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BD156-639A-42DC-B583-6CA17C896FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{1D29DD32-2502-41F4-BC12-AF8C3DFC25A4}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{1D29DD32-2502-41F4-BC12-AF8C3DFC25A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -414,131 +414,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BFE30D-A1B1-4EF6-BC73-12CC8F39911D}">
-  <dimension ref="B3:C17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>45931</v>
       </c>
-      <c r="C4">
+      <c r="B2">
         <v>23.4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>45932</v>
       </c>
-      <c r="C5">
+      <c r="B3">
         <v>24.1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>45933</v>
       </c>
-      <c r="C6">
+      <c r="B4">
         <v>22.8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>45934</v>
       </c>
-      <c r="C7">
+      <c r="B5">
         <v>25.3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>45935</v>
       </c>
-      <c r="C8">
+      <c r="B6">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>45936</v>
       </c>
-      <c r="C9">
+      <c r="B7">
         <v>24.6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>45937</v>
       </c>
-      <c r="C10">
+      <c r="B8">
         <v>23.9</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>45938</v>
       </c>
-      <c r="C11">
+      <c r="B9">
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>45939</v>
       </c>
-      <c r="C12">
+      <c r="B10">
         <v>21.8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>45940</v>
       </c>
-      <c r="C13">
+      <c r="B11">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>45941</v>
       </c>
-      <c r="C14">
+      <c r="B12">
         <v>24.2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>45942</v>
       </c>
-      <c r="C15">
+      <c r="B13">
         <v>25.7</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>45943</v>
       </c>
-      <c r="C16">
+      <c r="B14">
         <v>26.4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>45944</v>
       </c>
-      <c r="C17">
+      <c r="B15">
         <v>27.1</v>
       </c>
     </row>
